--- a/工具/批量命令执行/项目目录.xlsx
+++ b/工具/批量命令执行/项目目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22395" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>appName</t>
   </si>
@@ -38,139 +38,3479 @@
     <t>path</t>
   </si>
   <si>
-    <t>自建应用</t>
+    <t>basicSetting-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\basicSetting-microProject-app</t>
+    </r>
+  </si>
+  <si>
+    <t>dataManagement-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dataManagement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>userProfile-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>userProfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>leads-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>leads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>account-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>customApp-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\customApp-microProject-app</t>
-  </si>
-  <si>
-    <t>隐私条款</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customApp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>privacyPolicy-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\privacyPolicy-microProject-app</t>
-  </si>
-  <si>
-    <t>JINGtrack Web</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>privacyPolicy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>journey-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>journey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>JINGTrackWeb-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\JINGTrackWeb-microProject-app</t>
-  </si>
-  <si>
-    <t>JINGtrack 小程序</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JINGTrackWeb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>JINGTrackMiniProgram-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\JINGTrackMiniProgram-microProject-app</t>
-  </si>
-  <si>
-    <t>内容营销</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JINGTrackMiniProgram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>dataConnect-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dataConnect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>company-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>materialLibrary-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>materialLibrary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>survey-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>survey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>surveyOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>surveyOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>webinar-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>webinar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>webinarOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>webinarOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>seminar-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seminar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>seminarOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seminarOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>content-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\content-microProject-app</t>
-  </si>
-  <si>
-    <t>内容营销（旧）</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>contentOld-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\contentOld-microProject-app</t>
-  </si>
-  <si>
-    <t>会员中心</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>contentOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>landingPage-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>landingPage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>link-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>wechatMarketing-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wechatMarketing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>weComMarketing-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>weComMarketing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>edm-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>edm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>yunpianSms-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yunpianSms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>vipMemberCenter-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\vipMemberCenter-microProject-app</t>
-  </si>
-  <si>
-    <t>易企秀</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vipMemberCenter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>teamMemberCenter-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>teamMemberCenter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>yiqixiu-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\yiqixiu-microProject-app</t>
-  </si>
-  <si>
-    <t>成员中心（旧）</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yiqixiu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>teamMemberCenterOld-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\teamMemberCenterOld-microProject-app</t>
-  </si>
-  <si>
-    <t>全员营销</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>teamMemberCenterOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>fullStaffMarketing-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\fullStaffMarketing-microProject-app</t>
-  </si>
-  <si>
-    <t>JINGsales（旧）</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fullStaffMarketing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>exhibitionOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>exhibitionOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>activityOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>activityOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>fissionOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fissionOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>contentPublishingReviewRulesOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>contentPublishingReviewRulesOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>campaignMarketing-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>campaignMarketing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>salesToolsOld-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\salesToolsOld-microProject-app</t>
-  </si>
-  <si>
-    <t>JINGtrack（旧）</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>salesToolsOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>popularizeOld-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>popularizeOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>JINGTrackOld-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\JINGTrackOld-microProject-app</t>
-  </si>
-  <si>
-    <t>推广管理（旧）</t>
-  </si>
-  <si>
-    <t>popularizeOld-microProject-app</t>
-  </si>
-  <si>
-    <t>D:\\项目\popularizeOld-microProject-app</t>
-  </si>
-  <si>
-    <t>潜客管理（旧）</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JINGTrackOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>leadsOld-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\leadsOld-microProject-app</t>
-  </si>
-  <si>
-    <t>自定义行为</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>leadsOld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>omnichannel-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>omnichannel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
   <si>
     <t>customEvents-microProject-app</t>
   </si>
   <si>
-    <t>D:\\项目\customEvents-microProject-app</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customEvents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
+  </si>
+  <si>
+    <t>applicationMarket-microProject-app</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>applicationMarket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>microProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -183,10 +3523,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,6 +3681,42 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -654,146 +4037,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1142,193 +4530,395 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="2:3">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:3">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="24" ht="14.25" spans="2:3">
+      <c r="B24" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="2:3">
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="2:3">
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="2:3">
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="2:3">
+      <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="2:3">
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:3">
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="2:3">
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="2:3">
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="2:3">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="2:3">
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="2:3">
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="2:3">
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="2:3">
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="2:3">
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="2:3">
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="2:3">
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="2:3">
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="2:3">
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="2:3">
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
